--- a/data/sample_import_template-gpt-oss-120b.xlsx
+++ b/data/sample_import_template-gpt-oss-120b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9849A1FB-B52D-452A-B17C-DB39B58A80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E6E1E-3CBD-4805-8D36-814BDBAAF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>task_id</t>
   </si>
@@ -236,6 +236,28 @@
   </si>
   <si>
     <t>llm-010</t>
+  </si>
+  <si>
+    <t>The wording of the riddle leaves a lot of room for interpretation, so the answer depends on which assumptions you adopt.  
+Below is a systematic list of the most common “reasonable” possibilities, together with the assumptions that justify each one.
+| # of birds that stay **on the tree** | Reasoning / assumptions |
+|--------------------------------------|--------------------------|
+| **0** | *All the birds are startled by the gunshot and fly away. The bird that was shot falls to the ground (or is removed by the shooter), so nothing is left “on the tree”. |
+| **1** | The shot bird remains stuck to the branch (either dead or merely stunned) while the other 14 birds fly away. |
+| **14** | The shot bird is instantly removed from the tree (e.g., it falls away or the shooter pulls it off) **and** the remaining birds are not frightened enough to leave. |
+| **15** | The rifle misses (or the “shot” is metaphorical). No bird is displaced, so the original 15 stay. |
+| **unknown / cannot be determined** | The puzzle gives no information about the birds’ reaction to the gunshot, the fate of the killed bird, or whether the shooter actually hits the target. In this case the answer is “it could be any number from 0 to 15”. |
+| **other values (2 – 13)** | Technically possible if only some of the un‑shot birds flee while the rest stay, or if the shot bird is partially removed (e.g., it drops but lands back on a branch). These outcomes are less common in the classic riddle but are logically consistent. |
+### Why these are the “standard” answers
+1. **0** – The most popular punch‑line in the classic riddle. A loud gunshot typically scares the whole flock away.
+2. **1** – Some people argue the dead bird is still “on the tree”, so at least one bird remains.
+3. **14** – If you treat “one is shot” as “one is removed from the tree”, you simply subtract one from the original count.
+4. **15** – A literal reading that nothing necessarily changes unless the bullet actually hits.
+5. **Unknown** – Emphasises that the problem statement is under‑specified.
+### How to present an answer in a conversation
+If you want to give a concise reply:
+&gt; *“It could be 0, 1, 14, or 15 birds, depending on whether the shot bird stays, the other birds flee, or the shot misses. Since the puzzle doesn’t specify the birds’ reaction, any number from 0 to 15 is logically possible.”*
+Or you can list them as above for a thorough answer.</t>
   </si>
 </sst>
 </file>
@@ -626,7 +648,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -742,7 +764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.2" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -759,7 +781,13 @@
         <v>70</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <v>938</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>

--- a/data/sample_import_template-gpt-oss-120b.xlsx
+++ b/data/sample_import_template-gpt-oss-120b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E6E1E-3CBD-4805-8D36-814BDBAAF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B1A82-FE26-4AD8-8AD7-678AD3E562EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>task_id</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>language_tasks_002</t>
-  </si>
-  <si>
-    <t>English pangram without x,y,z</t>
-  </si>
-  <si>
-    <t>Write an English pangram that uses every letter of the alphabet exactly once except: x,y,z</t>
   </si>
   <si>
     <t>language_tasks_003</t>
@@ -258,6 +252,20 @@
 If you want to give a concise reply:
 &gt; *“It could be 0, 1, 14, or 15 birds, depending on whether the shot bird stays, the other birds flee, or the shot misses. Since the puzzle doesn’t specify the birds’ reaction, any number from 0 to 15 is logically possible.”*
 Or you can list them as above for a thorough answer.</t>
+  </si>
+  <si>
+    <t>Run  
+Fast stride  
+Heart beats loud  
+Crowd roars palms sweat  
+Gold shines on the field  
+Champions claim the gold</t>
+  </si>
+  <si>
+    <t>Write a poem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a poem that consists of 6 lines and is about sports. The number of syllables in the lines increases by 1 from line to line. The first line has 1 syllable. </t>
   </si>
 </sst>
 </file>
@@ -648,7 +656,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -700,16 +708,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -718,24 +726,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="86.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="H3">
+        <v>741</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -743,19 +757,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -766,25 +780,25 @@
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>938</v>
@@ -795,19 +809,19 @@
     </row>
     <row r="6" spans="1:10" ht="22.8" customHeight="1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -818,19 +832,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -841,19 +855,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -864,19 +878,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -887,19 +901,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -910,19 +924,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -933,19 +947,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -956,19 +970,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -979,19 +993,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1002,19 +1016,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1025,19 +1039,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>7</v>
@@ -1048,19 +1062,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1071,19 +1085,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1094,19 +1108,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>0</v>

--- a/data/sample_import_template-gpt-oss-120b.xlsx
+++ b/data/sample_import_template-gpt-oss-120b.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B1A82-FE26-4AD8-8AD7-678AD3E562EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79221BBA-E0E0-4027-90CB-5C487FFD2C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -939,7 +939,7 @@
         <v>68</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
